--- a/zib2017-2020/mapping/excel/Contact.xlsx
+++ b/zib2017-2020/mapping/excel/Contact.xlsx
@@ -256,7 +256,7 @@
     <t>X TO ONE-TO-ONE</t>
   </si>
   <si>
-    <t>ONE-TO-MANY TO ZERO-TO-MANY</t>
+    <t>ONE TO ZERO-TO-MANY</t>
   </si>
   <si>
     <t>High</t>
@@ -274,7 +274,7 @@
     <t>TO CARDINALITY ONE ON PARENT CONTAINER</t>
   </si>
   <si>
-    <t>ZERO-TO-MANY TO ONE-TO-MANY</t>
+    <t>ZERO-TO-MANY TO ONE</t>
   </si>
   <si>
     <t>IF [blank]source-&gt;target ELSE [toon en stuur de inhoud van dit data item als vrije tekst naar een 2017 ontvanger]</t>

--- a/zib2017-2020/mapping/excel/Contact.xlsx
+++ b/zib2017-2020/mapping/excel/Contact.xlsx
@@ -7,8 +7,11 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="translations" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">translations!$A$1:$O$19</definedName>
+  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -345,7 +348,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE403"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA003"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -640,6 +672,13 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="40.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="5" width="40.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="15" width="40.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
@@ -1319,6 +1358,21 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O19"/>
+  <conditionalFormatting sqref="E2:E19">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"groen: geen wijzigingen"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"geel: patch wijziging"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"oranje: minor change"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"rood: major change"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/zib2017-2020/mapping/excel/Contact.xlsx
+++ b/zib2017-2020/mapping/excel/Contact.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lindamook/Documents/GitHub/nictiz/Zibtranslate/zib2017-2020/mapping/excel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74FC774-8E85-D64C-9DB8-7F1B749F88C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="23120" windowHeight="14740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="translations" sheetId="1" r:id="rId1"/>
@@ -12,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">translations!$A$1:$O$19</definedName>
   </definedNames>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="86">
   <si>
     <t>ZibName</t>
   </si>
@@ -235,9 +241,6 @@
     <t xml:space="preserve">TERMINOLOGY MAPPING CONCEPT CHANGE </t>
   </si>
   <si>
-    <t>NO CHANGE</t>
-  </si>
-  <si>
     <t>DATETIME IN FUTURE ALLOWED</t>
   </si>
   <si>
@@ -266,9 +269,6 @@
   </si>
   <si>
     <t>SCT DefintionCode  [308335008 Patiëntcontact] -&gt; [blank]</t>
-  </si>
-  <si>
-    <t>SCT DefintionCode [blank] -&gt; [308552006 Status van verslag]</t>
   </si>
   <si>
     <t>IF [datetime]&gt; TODAY&gt; remove check for dates in future on 2017 zib</t>
@@ -286,8 +286,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,7 +352,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA003"/>
         </patternFill>
       </fill>
     </dxf>
@@ -366,26 +373,27 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFA003"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -423,7 +431,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -457,6 +465,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -491,9 +500,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -666,21 +676,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="5" width="40.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="15" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="40.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="5" width="40.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="15" width="40.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -727,7 +739,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -756,13 +768,13 @@
         <v>70</v>
       </c>
       <c r="L2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -791,19 +803,19 @@
         <v>71</v>
       </c>
       <c r="L3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M3" t="s">
         <v>77</v>
       </c>
-      <c r="M3" t="s">
-        <v>78</v>
-      </c>
       <c r="N3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -828,14 +840,8 @@
       <c r="H4" t="s">
         <v>44</v>
       </c>
-      <c r="K4" t="s">
-        <v>72</v>
-      </c>
-      <c r="O4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -861,19 +867,19 @@
         <v>64</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" t="s">
         <v>76</v>
       </c>
-      <c r="N5" t="s">
-        <v>77</v>
-      </c>
       <c r="O5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -902,13 +908,13 @@
         <v>70</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -934,19 +940,19 @@
         <v>64</v>
       </c>
       <c r="K7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L7" t="s">
+        <v>75</v>
+      </c>
+      <c r="N7" t="s">
         <v>76</v>
       </c>
-      <c r="N7" t="s">
-        <v>77</v>
-      </c>
       <c r="O7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -975,13 +981,13 @@
         <v>70</v>
       </c>
       <c r="L8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1007,22 +1013,22 @@
         <v>65</v>
       </c>
       <c r="K9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1051,13 +1057,13 @@
         <v>70</v>
       </c>
       <c r="L10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1076,11 +1082,8 @@
       <c r="G11" t="s">
         <v>51</v>
       </c>
-      <c r="K11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1099,11 +1102,8 @@
       <c r="G12" t="s">
         <v>52</v>
       </c>
-      <c r="K12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1129,22 +1129,22 @@
         <v>65</v>
       </c>
       <c r="K13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1173,13 +1173,13 @@
         <v>70</v>
       </c>
       <c r="L14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1205,22 +1205,22 @@
         <v>65</v>
       </c>
       <c r="K15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1246,22 +1246,22 @@
         <v>68</v>
       </c>
       <c r="K16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L16" t="s">
+        <v>75</v>
+      </c>
+      <c r="M16" t="s">
+        <v>79</v>
+      </c>
+      <c r="N16" t="s">
         <v>76</v>
       </c>
-      <c r="M16" t="s">
-        <v>80</v>
-      </c>
-      <c r="N16" t="s">
-        <v>77</v>
-      </c>
       <c r="O16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1286,11 +1286,8 @@
       <c r="H17" t="s">
         <v>45</v>
       </c>
-      <c r="K17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1315,11 +1312,8 @@
       <c r="H18" t="s">
         <v>46</v>
       </c>
-      <c r="K18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1345,31 +1339,31 @@
         <v>69</v>
       </c>
       <c r="K19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O19"/>
+  <autoFilter ref="A1:O19" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="E2:E19">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"groen: geen wijzigingen"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"geel: patch wijziging"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"oranje: minor change"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"rood: major change"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/zib2017-2020/mapping/excel/Contact.xlsx
+++ b/zib2017-2020/mapping/excel/Contact.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lindamook/Documents/GitHub/nictiz/Zibtranslate/zib2017-2020/mapping/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74FC774-8E85-D64C-9DB8-7F1B749F88C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD0C11F-8834-2742-947E-E778DAF4BA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="23120" windowHeight="14740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7820" yWindow="3120" windowWidth="23120" windowHeight="14740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="translations" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">translations!$A$1:$O$19</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="85">
   <si>
     <t>ZibName</t>
   </si>
@@ -244,9 +257,6 @@
     <t>DATETIME IN FUTURE ALLOWED</t>
   </si>
   <si>
-    <t>CARDINALITY CHANGE</t>
-  </si>
-  <si>
     <t>CONCEPT ADDITION</t>
   </si>
   <si>
@@ -259,12 +269,6 @@
     <t>SCT DefintionCode  [blank] -&gt; [308335008 Patiëntcontact]</t>
   </si>
   <si>
-    <t>X TO ONE-TO-ONE</t>
-  </si>
-  <si>
-    <t>ONE TO ZERO-TO-MANY</t>
-  </si>
-  <si>
     <t>High</t>
   </si>
   <si>
@@ -274,13 +278,19 @@
     <t>IF [datetime]&gt; TODAY&gt; remove check for dates in future on 2017 zib</t>
   </si>
   <si>
-    <t>TO CARDINALITY ONE ON PARENT CONTAINER</t>
-  </si>
-  <si>
-    <t>ZERO-TO-MANY TO ONE</t>
-  </si>
-  <si>
-    <t>IF [blank]source-&gt;target ELSE [toon en stuur de inhoud van dit data item als vrije tekst naar een 2017 ontvanger]</t>
+    <t>CARDINALITY CHANGES (0..1 to 1)</t>
+  </si>
+  <si>
+    <t>CARDINALITY CHANGES (0..1 to 0..*)</t>
+  </si>
+  <si>
+    <t>ALS [aantal=0] DAN [doe iets] ANDERS source -&gt; target</t>
+  </si>
+  <si>
+    <t>ALS [aantal&gt;1] DAN [doe iets] ANDERS source -&gt; target</t>
+  </si>
+  <si>
+    <t>IF source &lt;&gt; [blank] THEN source -&gt; target=[non-zib item]</t>
   </si>
 </sst>
 </file>
@@ -339,11 +349,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -679,17 +690,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="5" width="40.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="15" width="40.6640625" customWidth="1"/>
+    <col min="1" max="1" width="40.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="2" customWidth="1"/>
+    <col min="3" max="5" width="40.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="2" customWidth="1"/>
+    <col min="7" max="15" width="40.6640625" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
@@ -740,615 +752,603 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="N2" t="s">
+      <c r="M3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="O3" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L3" t="s">
-        <v>76</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N3" t="s">
-        <v>76</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="M9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="L16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K5" t="s">
-        <v>72</v>
-      </c>
-      <c r="L5" t="s">
-        <v>75</v>
-      </c>
-      <c r="N5" t="s">
-        <v>76</v>
-      </c>
-      <c r="O5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" t="s">
-        <v>56</v>
-      </c>
-      <c r="J6" t="s">
-        <v>62</v>
-      </c>
-      <c r="K6" t="s">
-        <v>70</v>
-      </c>
-      <c r="L6" t="s">
-        <v>75</v>
-      </c>
-      <c r="N6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L7" t="s">
-        <v>75</v>
-      </c>
-      <c r="N7" t="s">
-        <v>76</v>
-      </c>
-      <c r="O7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" t="s">
-        <v>56</v>
-      </c>
-      <c r="J8" t="s">
-        <v>62</v>
-      </c>
-      <c r="K8" t="s">
-        <v>70</v>
-      </c>
-      <c r="L8" t="s">
-        <v>75</v>
-      </c>
-      <c r="N8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" t="s">
-        <v>58</v>
-      </c>
-      <c r="J9" t="s">
-        <v>65</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="F17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="L9" t="s">
-        <v>76</v>
-      </c>
-      <c r="M9" t="s">
-        <v>78</v>
-      </c>
-      <c r="N9" t="s">
-        <v>75</v>
-      </c>
-      <c r="O9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J10" t="s">
-        <v>66</v>
-      </c>
-      <c r="K10" t="s">
-        <v>70</v>
-      </c>
-      <c r="L10" t="s">
-        <v>75</v>
-      </c>
-      <c r="N10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" t="s">
-        <v>58</v>
-      </c>
-      <c r="J13" t="s">
-        <v>65</v>
-      </c>
-      <c r="K13" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" t="s">
-        <v>76</v>
-      </c>
-      <c r="M13" t="s">
-        <v>78</v>
-      </c>
-      <c r="N13" t="s">
-        <v>75</v>
-      </c>
-      <c r="O13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" t="s">
-        <v>58</v>
-      </c>
-      <c r="J14" t="s">
-        <v>67</v>
-      </c>
-      <c r="K14" t="s">
-        <v>70</v>
-      </c>
-      <c r="L14" t="s">
-        <v>75</v>
-      </c>
-      <c r="N14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" t="s">
-        <v>58</v>
-      </c>
-      <c r="J15" t="s">
-        <v>65</v>
-      </c>
-      <c r="K15" t="s">
-        <v>73</v>
-      </c>
-      <c r="L15" t="s">
-        <v>76</v>
-      </c>
-      <c r="M15" t="s">
-        <v>78</v>
-      </c>
-      <c r="N15" t="s">
-        <v>75</v>
-      </c>
-      <c r="O15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" t="s">
-        <v>60</v>
-      </c>
-      <c r="J16" t="s">
-        <v>68</v>
-      </c>
-      <c r="K16" t="s">
-        <v>73</v>
-      </c>
-      <c r="L16" t="s">
-        <v>75</v>
-      </c>
-      <c r="M16" t="s">
-        <v>79</v>
-      </c>
-      <c r="N16" t="s">
-        <v>76</v>
-      </c>
-      <c r="O16" t="s">
+      <c r="L19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O19" s="2" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" t="s">
-        <v>54</v>
-      </c>
-      <c r="H18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" t="s">
-        <v>55</v>
-      </c>
-      <c r="I19" t="s">
-        <v>61</v>
-      </c>
-      <c r="J19" t="s">
-        <v>69</v>
-      </c>
-      <c r="K19" t="s">
-        <v>74</v>
-      </c>
-      <c r="L19" t="s">
-        <v>75</v>
-      </c>
-      <c r="N19" t="s">
-        <v>80</v>
-      </c>
-      <c r="O19" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
